--- a/biology/Zoologie/Gallus_(genre)/Gallus_(genre).xlsx
+++ b/biology/Zoologie/Gallus_(genre)/Gallus_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gallus est un genre d'oiseaux aussi appelés coqs. Il comprend notamment le Coq bankiva, espèce qui comprend elle-même la sous-espèce Gallus gallus domesticus, la poule domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Gallus gallus (Linnaeus, 1758) – Coq doré ; il a pour sous-espèces :
@@ -556,7 +570,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez ces espèces, le dimorphisme sexuel est assez marqué : le coq se distingue de la poule par sa taille plus importante, par sa crête et ses barbillons qui sont développés et il possède également des ergots sur les tarses ; le coloris de son plumage est plus éclatant et sa queue plus développée.
 Le plumage des femelles est typique de la famille des phasianidés : il est conçu pour le camouflage, car elle seule s'occupe de la couvaison et des soins aux poussins. Les crêtes sont quasi inexistantes chez la poule à l'état sauvage.
@@ -589,7 +605,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La poule construit son nid dans un endroit isolé de ses prédateurs (souches d'arbres creux, terriers abandonnés, dans les broussailles et les buissons...), généralement au niveau du sol car les poussins sont nidifuges.
 Seule la poule se charge de la couvaison, durant environ 19-21 jours et de 2 à 10 œufs (selon espèces), pondus bien sûr au rythme d'un par jour, mais les poussins « synchronisent » leur éclosion.
@@ -627,9 +645,11 @@
           <t>Production en France</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France sont élevés pour la chair plus de 700 millions de Gallus (en 2008) [1]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France sont élevés pour la chair plus de 700 millions de Gallus (en 2008) 
 </t>
         </is>
       </c>
